--- a/biology/Zoologie/Chilodontidae/Chilodontidae.xlsx
+++ b/biology/Zoologie/Chilodontidae/Chilodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chilodontidae sont une famille de poissons d'eau douce de l'ordre des Characiformes originaires du Nord et du centre de l'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille, proche de celle des Anostomidae, en est parfois considérée comme sous-famille (les Chilodontinae).
 Durant un temps elle était homonyme de la famille de gastéropodes des Chilodontidae Wenz, 1938, taxon synonyme et invalide de la famille des Chilodontaidae.
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Chilodontidae ont un marquage coloré, les rendant populaires dans les aquariums amateurs. Ce sont de petits poissons, mesurant moins de 70 mm de longueur à l'âge adulte, et qui se distinguent par leurs postures habituelles la tête en bas[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Chilodontidae ont un marquage coloré, les rendant populaires dans les aquariums amateurs. Ce sont de petits poissons, mesurant moins de 70 mm de longueur à l'âge adulte, et qui se distinguent par leurs postures habituelles la tête en bas.
 </t>
         </is>
       </c>
@@ -574,15 +590,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (04 juin 2015)[2] :
-genre Caenotropus Günther, 1864[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (04 juin 2015) :
+genre Caenotropus Günther, 1864
 Caenotropus labyrinthicus (Kner, 1858)
 Caenotropus maculosus (Eigenmann, 1912)
 Caenotropus mestomorgmatos Vari, Castro &amp; Raredon, 1995
 Caenotropus schizodon Scharcansky &amp; Lucena, 2007
-genre Chilodus J. P. Müller &amp; Troschel, 1844[4]
+genre Chilodus J. P. Müller &amp; Troschel, 1844
 Chilodus fritillus Vari &amp; Ortega, 1997
 Chilodus gracilis Isbrücker &amp; Nijssen, 1988
 Chilodus punctatus Müller &amp; Troschel, 1844
